--- a/test/reporte_inscripciones_evento_1.xlsx
+++ b/test/reporte_inscripciones_evento_1.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,168 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>qllo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Claure Reyes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Milenia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Centro Cultural Anglo Americano Cochabamba</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Argote Gomez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noelia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Colegio Particular Hispano Boliviano</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Azogue Aranibar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fernando</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Colegio Particular Hispano Boliviano</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Galvez Perez</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rodrigo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Centro Cultural Anglo Americano Cochabamba</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sacaba</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gonzales Medrano</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emilio Jorge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Colegio Loyola</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vega Salinas</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Juan Pablo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Colegio Albert Einstein</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cercado</t>
         </is>
       </c>
     </row>

--- a/test/reporte_inscripciones_evento_1.xlsx
+++ b/test/reporte_inscripciones_evento_1.xlsx
@@ -7,12 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="categarioa  4 area 3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="categarioa  1 area 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="categarioa  5 area 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="categarioa 2,  area 1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="categarioa  7 area 3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="categarioa 3 area 2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Secundaria - 4to Curso" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Secundaria - 3er curso" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>categarioa  4 area 3</t>
+          <t>Secundaria - 4to Curso</t>
         </is>
       </c>
     </row>
@@ -463,12 +459,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apaza</t>
+          <t>Vega Salinas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aron</t>
+          <t>Juan Pablo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -478,39 +474,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cbba</t>
+          <t>Cochabamba</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>student1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>qllo</t>
+          <t>Cercado</t>
         </is>
       </c>
     </row>
@@ -536,7 +505,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>categarioa  1 area 1</t>
+          <t>Secundaria - 3er curso</t>
         </is>
       </c>
     </row>
@@ -570,12 +539,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>Vega Salinas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>Juan Pablo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -585,413 +554,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cbba</t>
+          <t>Cochabamba</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>categarioa  5 area 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nombres</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Colegio</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Departamento</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Provincia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>student1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>student2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>categarioa 2,  area 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nombres</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Colegio</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Departamento</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Provincia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>student2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>student3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>categarioa  7 area 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nombres</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Colegio</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Departamento</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Provincia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>student2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>student3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>qllo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>categarioa 3 area 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nombres</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Colegio</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Departamento</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Provincia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>student3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ExUnersity</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cbba</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>qllo</t>
+          <t>Cercado</t>
         </is>
       </c>
     </row>
